--- a/Excel/Window@c.xlsx
+++ b/Excel/Window@c.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETMMO2\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD6B52A-6741-4CE2-BDB4-58A531359A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Window" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,23 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -167,19 +184,25 @@
   </si>
   <si>
     <t>ItemTip/UIItemTip</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGameStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameStart/UIGameStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,151 +224,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,194 +250,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -553,251 +259,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -805,9 +269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,72 +281,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Window"/>
@@ -1305,112 +725,112 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="8.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:10">
-      <c r="F2" s="5" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="6" t="s">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:9">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>100001</v>
       </c>
@@ -1429,12 +849,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>100002</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D16" si="0">C7</f>
+        <f t="shared" ref="D7:D12" si="0">C7</f>
         <v>100002</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1450,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="3:9">
+    <row r="8" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>100003</v>
       </c>
@@ -1469,7 +889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="3:10">
+    <row r="9" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>100004</v>
       </c>
@@ -1491,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="3:9">
+    <row r="10" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>100005</v>
       </c>
@@ -1510,7 +930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="3:9">
+    <row r="11" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>100006</v>
       </c>
@@ -1529,7 +949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="3:9">
+    <row r="12" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>100007</v>
       </c>
@@ -1548,7 +968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="3:9">
+    <row r="13" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>100008</v>
       </c>
@@ -1566,149 +986,165 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="2:2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>100009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100008</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="3:10">
-      <c r="C15" s="1">
+    <row r="16" spans="2:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
         <v>100051</v>
-      </c>
-      <c r="D15" s="1">
-        <f>C15</f>
-        <v>100051</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f>VLOOKUP(D:D,[1]Window!$C:$D,2,FALSE)</f>
-        <v>Gm</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:10">
-      <c r="C16" s="1">
-        <v>100052</v>
       </c>
       <c r="D16" s="1">
         <f>C16</f>
+        <v>100051</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Window!$C:$D,2,FALSE)</f>
+        <v>Gm</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
         <v>100052</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="1">
+        <f>C17</f>
+        <v>100052</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F17" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Window!$C:$D,2,FALSE)</f>
         <v>设置</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="3:10">
-      <c r="C17" s="8">
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
         <v>100053</v>
       </c>
-      <c r="D17" s="8">
-        <f>C17</f>
+      <c r="D18" s="1">
+        <f>C18</f>
         <v>100053</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="8" t="str">
+      <c r="F18" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Window!$C:$D,2,FALSE)</f>
         <v>快捷键</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="3:10">
-      <c r="C18" s="1">
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
         <v>100054</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>100054</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F19" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Window!$C:$D,2,FALSE)</f>
         <v>工具</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="3:10">
-      <c r="C20" s="2">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
         <v>100101</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>100101</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="F21" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Window!$C:$D,2,FALSE)</f>
         <v>背包</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="3:10">
-      <c r="C21" s="2">
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
         <v>100102</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>100102</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" ht="13.5"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>